--- a/data/trans_orig/Q03B_FES-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_FES-Clase-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.372440285193016</v>
+        <v>1.374129865341621</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.429892456360684</v>
+        <v>1.438101947938146</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.799827533629141</v>
+        <v>1.787752338265596</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.838264067779548</v>
+        <v>2.844014107455362</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.028466620118905</v>
+        <v>3.029304108380775</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.928424605629358</v>
+        <v>2.928046153323256</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.994743229403835</v>
+        <v>1.991724134858204</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.142809941911309</v>
+        <v>2.143653165384048</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.330062543609035</v>
+        <v>2.335457393362474</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.701539063690614</v>
+        <v>1.699996940480096</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.745353621756856</v>
+        <v>1.761687870094147</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.080569297749056</v>
+        <v>2.070146142787865</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.318221032215839</v>
+        <v>3.293074977150591</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.533781843662823</v>
+        <v>3.513864919625437</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.320660506776369</v>
+        <v>3.308452824364552</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.286705456695608</v>
+        <v>2.279349241641123</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.450608071368035</v>
+        <v>2.461392415566749</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.582350930644165</v>
+        <v>2.58472138988655</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.446191635871093</v>
+        <v>1.442373987528635</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.563028852416068</v>
+        <v>1.561301325897346</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.788797824926585</v>
+        <v>1.779585052143928</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.317049717014636</v>
+        <v>3.332310094647482</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.209720292942371</v>
+        <v>3.206331268641642</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.204061541689372</v>
+        <v>3.200507592473583</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.437388226189571</v>
+        <v>2.444088028572572</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.347528467379903</v>
+        <v>2.348652586354009</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.541037044455623</v>
+        <v>2.539707595630081</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.837800050215519</v>
+        <v>1.853649996352401</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.910314635942241</v>
+        <v>1.914424903775695</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.1062116572241</v>
+        <v>2.109990567656952</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.781169817959198</v>
+        <v>3.771645830874655</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.695661423672834</v>
+        <v>3.691195831014443</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.703006410000572</v>
+        <v>3.704575986069762</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.77653647404598</v>
+        <v>2.781341295529859</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.643838522129311</v>
+        <v>2.666631115638165</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.856632530519644</v>
+        <v>2.848890640207398</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.436845825835651</v>
+        <v>1.427730156487143</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.497010677793747</v>
+        <v>1.49489467679471</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.634620523566681</v>
+        <v>1.623981539672493</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.437816022657476</v>
+        <v>3.420129262802465</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.032637933142487</v>
+        <v>3.047292617023652</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.070532425689339</v>
+        <v>3.091142811916809</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.92243682635413</v>
+        <v>1.918596469285418</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.980592634878048</v>
+        <v>1.987303296100599</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.037728964252298</v>
+        <v>2.027112196947407</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.828985158656253</v>
+        <v>1.805768734491649</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.770337366462517</v>
+        <v>1.748010435279216</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.890242193325559</v>
+        <v>1.904622940952732</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.127564253353806</v>
+        <v>4.108657309175784</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.560945478725216</v>
+        <v>3.606671102010753</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.779284244515981</v>
+        <v>3.780547533805569</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.290095356994042</v>
+        <v>2.298334874886196</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.252908008902325</v>
+        <v>2.256193749001922</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.330564068783709</v>
+        <v>2.318738317932511</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.304253268737938</v>
+        <v>1.303872845094124</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.356411321872854</v>
+        <v>1.366932603238942</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.592719740097167</v>
+        <v>1.579419684270155</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.395142304453413</v>
+        <v>3.405436844558199</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.371527454479831</v>
+        <v>3.390949295260433</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.226669587626933</v>
+        <v>3.2357239715147</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.097028808936676</v>
+        <v>2.086089676868807</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.185330135992387</v>
+        <v>2.209048764316965</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.313819225231492</v>
+        <v>2.311759788341627</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.531388700049453</v>
+        <v>1.544926432568433</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.559845967369854</v>
+        <v>1.565423606751949</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.797850525546892</v>
+        <v>1.789115911571731</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.764684645827931</v>
+        <v>3.754623899906455</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.715414972302178</v>
+        <v>3.723619993001767</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.510963772984247</v>
+        <v>3.520319147903809</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.319837814958692</v>
+        <v>2.307633468261847</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.396230411082659</v>
+        <v>2.407216929508136</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.505463305181661</v>
+        <v>2.501458666584498</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.032630565092644</v>
+        <v>1.019996624845431</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.329717306109802</v>
+        <v>1.320701185708087</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.518990023629151</v>
+        <v>1.517784538960214</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.038273327402849</v>
+        <v>4.054389912124271</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.554319835255144</v>
+        <v>3.570840775528608</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.737889378880747</v>
+        <v>3.749290988939124</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.934362466021117</v>
+        <v>2.916555419184863</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.687281711992866</v>
+        <v>2.703249475976359</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.779501512067494</v>
+        <v>2.780270861525434</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.375487187778343</v>
+        <v>1.387434238099312</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.60297128285667</v>
+        <v>1.599929539684354</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.775058633596893</v>
+        <v>1.783440934783385</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.544250522045765</v>
+        <v>4.546409678500014</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.9084741834934</v>
+        <v>3.916389020980564</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.122284432040849</v>
+        <v>4.110830998650012</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.332260301004346</v>
+        <v>3.320034600476091</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.960557191362452</v>
+        <v>2.960164665325518</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.033551681144165</v>
+        <v>3.043628513410054</v>
       </c>
     </row>
     <row r="19">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5635096725685531</v>
+        <v>0.5628107759704342</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.680932222583912</v>
+        <v>0.6787242054785572</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.038434127104422</v>
+        <v>1.032064291894264</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.13907222752406</v>
+        <v>3.142940276963944</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.871341249059031</v>
+        <v>2.870846646584359</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>2.988174052725321</v>
+        <v>3.006212889784987</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>2.656707078370056</v>
+        <v>2.658027791049774</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.462424261729989</v>
+        <v>2.465814196975063</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>2.620046205863276</v>
+        <v>2.610436617810041</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.843699272634818</v>
+        <v>0.8615864336296203</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.041721205308934</v>
+        <v>1.006465984362077</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.347073624008738</v>
+        <v>1.361847541486903</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.419446768115277</v>
+        <v>3.41357327198429</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.128897836977131</v>
+        <v>3.148828100877094</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>3.251543576457028</v>
+        <v>3.266018051791468</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>2.904789644217479</v>
+        <v>2.912809678653863</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>2.704509652238548</v>
+        <v>2.71449235298947</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>2.850588572112571</v>
+        <v>2.846490921377378</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.324401804477543</v>
+        <v>1.330786656299657</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.429693007536064</v>
+        <v>1.42976816248356</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.653000165575871</v>
+        <v>1.655282849416578</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.449335324661198</v>
+        <v>3.458336058022506</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.287314161637135</v>
+        <v>3.282988891613958</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.312435792358473</v>
+        <v>3.322320540363939</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.430285724489346</v>
+        <v>2.42872124901751</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.390561774158744</v>
+        <v>2.392445521928459</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.525616252565813</v>
+        <v>2.532758419074006</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.463227730608779</v>
+        <v>1.462758155546325</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.544103648264961</v>
+        <v>1.546130650959553</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.762995506585191</v>
+        <v>1.76605391309943</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.616807263820815</v>
+        <v>3.628321782065662</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.444649939426343</v>
+        <v>3.441455421372994</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.465589655623477</v>
+        <v>3.466002427641936</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.547662528444024</v>
+        <v>2.552141608389559</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.49582328046644</v>
+        <v>2.499081284987342</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.629456476584904</v>
+        <v>2.635331397682263</v>
       </c>
     </row>
     <row r="25">
